--- a/受控文档/软件需求工程/4项目监控/评分记录/20181209评分/20181209组内评审.xlsx
+++ b/受控文档/软件需求工程/4项目监控/评分记录/20181209评分/20181209组内评审.xlsx
@@ -888,16 +888,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>94</c:v>
+                  <c:v>93.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>92.5</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>93.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>91.5</c:v>
+                  <c:v>92.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>88.75</c:v>
@@ -953,19 +953,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>92.1</c:v>
+                  <c:v>91.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>92.1</c:v>
+                  <c:v>91.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>92.1</c:v>
+                  <c:v>91.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>92.1</c:v>
+                  <c:v>91.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>92.1</c:v>
+                  <c:v>91.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -979,11 +979,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="174266368"/>
-        <c:axId val="174219264"/>
+        <c:axId val="600580096"/>
+        <c:axId val="600530944"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="174266368"/>
+        <c:axId val="600580096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -994,7 +994,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174219264"/>
+        <c:crossAx val="600530944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1002,7 +1002,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174219264"/>
+        <c:axId val="600530944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1013,7 +1013,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174266368"/>
+        <c:crossAx val="600580096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2030,7 +2030,7 @@
   <dimension ref="H12:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14:L26"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="M14" s="2">
         <v>92.5</v>
@@ -2093,7 +2093,7 @@
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M15" s="1">
         <v>83.25</v>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="M20" s="2">
         <v>85</v>
@@ -2240,12 +2240,13 @@
       </c>
       <c r="K28" s="4">
         <f>(L14+L15+L20+L25)/4</f>
-        <v>92.5</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2317,7 +2318,7 @@
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M15" s="1">
         <v>83.25</v>
@@ -2464,7 +2465,7 @@
       </c>
       <c r="K28" s="4">
         <f>(L14+L15+L20+L25)/4</f>
-        <v>94</v>
+        <v>93.25</v>
       </c>
     </row>
   </sheetData>
@@ -2587,7 +2588,7 @@
   <dimension ref="D10:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2643,7 +2644,7 @@
         <v>100</v>
       </c>
       <c r="F12" s="2">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G12" s="2">
         <v>100</v>
@@ -2656,7 +2657,7 @@
       </c>
       <c r="J12" s="2">
         <f>SUM(E12:I12)/5</f>
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="4:10" x14ac:dyDescent="0.15">
@@ -2664,23 +2665,23 @@
         <v>9</v>
       </c>
       <c r="E13" s="1">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F13" s="1">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G13" s="1">
         <v>90</v>
       </c>
       <c r="H13" s="1">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I13" s="1">
         <v>90</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" ref="J13:J24" si="0">SUM(E13:I13)/5</f>
-        <v>87.2</v>
+        <v>88.2</v>
       </c>
     </row>
     <row r="14" spans="4:10" x14ac:dyDescent="0.15">
@@ -2727,7 +2728,7 @@
         <v>88</v>
       </c>
       <c r="F18" s="2">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G18" s="2">
         <v>85</v>
@@ -2740,7 +2741,7 @@
       </c>
       <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>87.2</v>
+        <v>86.2</v>
       </c>
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.15">
@@ -2831,11 +2832,11 @@
       </c>
       <c r="E26">
         <f>(E12+E13+E18+E23)/4+E24</f>
-        <v>94</v>
+        <v>93.25</v>
       </c>
       <c r="F26">
         <f t="shared" ref="F26:I26" si="1">(F12+F13+F18+F23)/4+F24</f>
-        <v>92.5</v>
+        <v>90</v>
       </c>
       <c r="G26">
         <f t="shared" si="1"/>
@@ -2843,7 +2844,7 @@
       </c>
       <c r="H26">
         <f>(H12+H13+H18+H23)/4+H24</f>
-        <v>91.5</v>
+        <v>92.25</v>
       </c>
       <c r="I26">
         <f t="shared" si="1"/>
@@ -2856,19 +2857,19 @@
       </c>
       <c r="E29">
         <f>(E26+F26+G26+H26+I26)/5</f>
-        <v>92.1</v>
+        <v>91.6</v>
       </c>
       <c r="F29">
-        <v>92.1</v>
+        <v>91.6</v>
       </c>
       <c r="G29">
-        <v>92.1</v>
+        <v>91.6</v>
       </c>
       <c r="H29">
-        <v>92.1</v>
+        <v>91.6</v>
       </c>
       <c r="I29">
-        <v>92.1</v>
+        <v>91.6</v>
       </c>
     </row>
   </sheetData>
